--- a/Output-Folder/Team-Location-count.xlsx
+++ b/Output-Folder/Team-Location-count.xlsx
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -511,16 +511,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,13 +531,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -571,16 +571,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -591,16 +591,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -614,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,13 +634,13 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -651,16 +651,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,10 +677,10 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -691,16 +691,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -717,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -771,13 +771,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -791,16 +791,16 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -814,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -831,16 +831,16 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
